--- a/job/result.xlsx
+++ b/job/result.xlsx
@@ -133,7 +133,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +183,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -208,7 +208,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -233,7 +233,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -258,7 +258,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -283,7 +283,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -308,7 +308,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -333,7 +333,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -358,7 +358,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -383,7 +383,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -408,7 +408,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -433,7 +433,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -458,7 +458,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="1905000"/>
+    <ext cx="2857500" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -466,6 +466,656 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -776,17 +1426,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="25.31645569620253" customWidth="1" min="1" max="1"/>
-    <col width="25.31645569620253" customWidth="1" min="3" max="3"/>
+    <col width="37.97468354430379" customWidth="1" min="1" max="1"/>
+    <col width="3.79746835443038" customWidth="1" min="2" max="2"/>
+    <col width="37.97468354430379" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="148.1481481481482" customHeight="1"/>
-    <row r="2" ht="148.1481481481482" customHeight="1"/>
-    <row r="3" ht="148.1481481481482" customHeight="1"/>
-    <row r="4" ht="148.1481481481482" customHeight="1"/>
-    <row r="5" ht="148.1481481481482" customHeight="1"/>
-    <row r="6" ht="148.1481481481482" customHeight="1"/>
-    <row r="7" ht="148.1481481481482" customHeight="1"/>
+    <row r="1" ht="222.2222222222222" customHeight="1"/>
+    <row r="2" ht="222.2222222222222" customHeight="1"/>
+    <row r="3" ht="222.2222222222222" customHeight="1"/>
+    <row r="4" ht="222.2222222222222" customHeight="1"/>
+    <row r="5" ht="222.2222222222222" customHeight="1"/>
+    <row r="6" ht="222.2222222222222" customHeight="1"/>
+    <row r="7" ht="222.2222222222222" customHeight="1"/>
+    <row r="8" ht="222.2222222222222" customHeight="1"/>
+    <row r="9" ht="222.2222222222222" customHeight="1"/>
+    <row r="10" ht="222.2222222222222" customHeight="1"/>
+    <row r="11" ht="222.2222222222222" customHeight="1"/>
+    <row r="12" ht="222.2222222222222" customHeight="1"/>
+    <row r="13" ht="222.2222222222222" customHeight="1"/>
+    <row r="14" ht="222.2222222222222" customHeight="1"/>
+    <row r="15" ht="222.2222222222222" customHeight="1"/>
+    <row r="16" ht="222.2222222222222" customHeight="1"/>
+    <row r="17" ht="222.2222222222222" customHeight="1"/>
+    <row r="18" ht="222.2222222222222" customHeight="1"/>
+    <row r="19" ht="222.2222222222222" customHeight="1"/>
+    <row r="20" ht="222.2222222222222" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
